--- a/docs/Logboek-mc-dev-ctf (1).xlsx
+++ b/docs/Logboek-mc-dev-ctf (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BFD2FE-ED76-4E39-BC97-ADA007B8F7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA1DEB4-6DB4-41AE-8C7A-68049600BA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8D136E9-6B31-42AB-977B-0D488AABD1F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Logboek</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Vlag item logica verbeterd</t>
+  </si>
+  <si>
+    <t>Logica toegevoegd om een vlag neer te zetten</t>
+  </si>
+  <si>
+    <t>Logica toegevoegd om een vlag te stelen</t>
   </si>
 </sst>
 </file>
@@ -645,7 +651,7 @@
   <dimension ref="B2:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,16 +836,24 @@
       <c r="C13" s="3"/>
       <c r="D13" s="5"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="3"/>
+      <c r="F13" s="7">
+        <v>45945</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="9">
+        <v>45955</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
